--- a/config/hunterX.xlsx
+++ b/config/hunterX.xlsx
@@ -159,7 +159,7 @@
     <t>群体治疗(魔攻x6.5，AOE5.0，耗魔30，cd10s，攻击力即回复量，10级时自动学会)</t>
   </si>
   <si>
-    <t>test</t>
+    <t>test_ssh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +522,7 @@
   <dimension ref="C2:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
